--- a/DMA_ProblemSet.xlsx
+++ b/DMA_ProblemSet.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhuynh1\Documents\Interviews\CRM_AnIn_ProblemSet\DMA_ProblemSet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bose/Desktop/GitHub/DMA_ProbSet/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5700"/>
+    <workbookView xWindow="600" yWindow="680" windowWidth="25660" windowHeight="15420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Problem 1" sheetId="1" r:id="rId1"/>
     <sheet name="Problem 2" sheetId="2" r:id="rId2"/>
+    <sheet name="target_accounts" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
   <si>
     <t>Control Group</t>
   </si>
@@ -250,11 +257,59 @@
       <t>. Given this new goal, which customer segment would you reccommend and why? Again, please show all of your work, note any assumptions, format the document however you'd like, and write your final answer in the form of an email directed to Jeff.</t>
     </r>
   </si>
+  <si>
+    <t>Total # of users to target: 41</t>
+  </si>
+  <si>
+    <t>acct_id</t>
+  </si>
+  <si>
+    <t>ASSUMPTIONS:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Sample data is actual representative of population, and sampling was done randomly </t>
+  </si>
+  <si>
+    <t>2. Tables given should remain unchaged, the task is to query</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am stating this because the PRODUCT table contains duplicate SKU. Although the product of </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU and GAME_NAME can be used as PK it would be ideal to have a unique serial PK. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The fact table was pre-populated, but had it not been we would require unique identifiers to </t>
+  </si>
+  <si>
+    <t>JOIN with the dimension tables.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. The acct_id is accurately represented in the original csv file. I did not use excel and such assuming that </t>
+  </si>
+  <si>
+    <t>the csv file is accurate and requires no further wrangling.</t>
+  </si>
+  <si>
+    <t>Revenue / converting account</t>
+  </si>
+  <si>
+    <t>Conversion rate</t>
+  </si>
+  <si>
+    <t>Cost / Redeem</t>
+  </si>
+  <si>
+    <t>Redemption rate</t>
+  </si>
+  <si>
+    <t>4. OPT_IN_FLAG column in the ACCOUNT table refers to opted-in-marketing offers</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -262,9 +317,16 @@
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -382,11 +444,11 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -395,7 +457,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -403,17 +465,17 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -423,7 +485,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -431,12 +493,12 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -445,31 +507,32 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -479,20 +542,24 @@
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="6" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="6" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -511,17 +578,18 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="4"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -686,24 +754,26 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>11906</xdr:rowOff>
+      <xdr:colOff>528320</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="142875" y="5214937"/>
-          <a:ext cx="9703593" cy="3869532"/>
+          <a:off x="142875" y="6960234"/>
+          <a:ext cx="10636885" cy="8503286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -739,8 +809,987 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>[Write answer here...feel free to resize]</a:t>
-          </a:r>
+            <a:t>Softwares used: Shell</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> scripting, PostgreSQL, Python 3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Breif overview: </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>1. I started by creating a localhost postgres database</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>2. In that, I created 3 tables with appropriate columns and populated the tables with the respective csv files</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>3. I did some basic querying, respective to each table, which are supplemented by some visualizations</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>4. In</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> the final query: I am using nested-join strucure</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>    -Why? </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>This is much more efficient in terms of processing power. Using nested query structure, we can join the pre-filtered table. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>             </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>For example, instead of joining the entire ACCOUNT TABLE to TRANSACTION TABLE, we can only join the accoounts which fit the baseline criteria. That way the processor deals           only with what is neccessary.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                For this particular case one could have chosen a sequenced WHERE-AND statements as well. However, that does NOT transalate well to Big Data. Using WHERE-AND statements attemptst to join entire tables, which can significantly overload the memory when dealing with large data sets.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Final Query: </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>SELECT DISTINCT(qr3.ACCT_ID)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>FROM( </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" baseline="0"/>
+            <a:t>     </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>SELECT qr1.ACCT_ID </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>     FROM(</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>           SELECT DISTINCT(transaction_fct.ACCT_ID), transaction_fct.TRANSACTION_VALUE, transaction_fct.SKU </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>           FROM transaction_fct </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>           WHERE transaction_fct.TRANSACTION_VALUE &gt;= 40 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>                 AND EXTRACT(MONTH FROM transaction_fct.TIME_STAMP) = 10 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>            ) qr1 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>      INNER JOIN ( </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>             SELECT product.SKU </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>             FROM product </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>             WHERE GAME_NAME = 'Destiny' </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>       ) qr2 ON qr1.SKU = qr2.SKU </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>) qr3 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>INNER JOIN (</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>      SELECT account.ACCT_ID </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>      FROM account </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>      WHERE COUNTRY_CODE = 'US' </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>          AND LANGUAGE_CODE = 'en'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>          AND OPT_IN_FLAG = 1 )qr4 ON qr3.ACCT_ID = qr4.ACCT_ID</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>How does this work?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>qr1 (TRANSACTION)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> = This is query 1 filtering out all accounts that fit the transaction criterions</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>qr2 (PRODUCT)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> = This is query 2 for filtering out ONLY 'Destiny' SKUs</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>q3 (JOIN: TRANSACTION + PRODUCT)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: Here, I am joining only the filtered transactions with filtered SKUs</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>q4 (ACCOUNT)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: This is query 4 for filtering out the baseline account specific criterions</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>q4 (JOIN: q4 + q3)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: Here, I am joining the already filtered q3 to filtered account id's</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>*This is just the final query to retreive the desired results</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>*I urge to take a look at my notebook to see how I set up the database and explored tables before arriving to my final solution. The notebook is annotated for your reference</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>  Link: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id=""/>
+            </a:rPr>
+            <a:t>http://bit.ly/2pIzwIr</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>**Using Python, I saved the resulting account_id's dataframe as a csv. I have added the sheet to this workbook, please see target_accounts sheet</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1014,25 +2063,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+    <sheetView topLeftCell="C8" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="43.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="43.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="14" width="18" style="2" customWidth="1"/>
     <col min="15" max="17" width="18" style="4" customWidth="1"/>
-    <col min="18" max="18" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="25.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="2"/>
+    <col min="18" max="18" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B2" s="9" t="s">
         <v>15</v>
       </c>
@@ -1052,117 +2101,117 @@
       <c r="P2" s="11"/>
       <c r="Q2" s="12"/>
     </row>
-    <row r="3" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
+    <row r="3" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="19"/>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="19"/>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="19"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="19"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="19"/>
-    </row>
-    <row r="8" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="20"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="22"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="23"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B4" s="21"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="23"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="23"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B6" s="21"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="23"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="23"/>
+    </row>
+    <row r="8" spans="2:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="26"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B10" s="13" t="s">
         <v>6</v>
       </c>
@@ -1212,7 +2261,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B11" s="13" t="s">
         <v>14</v>
       </c>
@@ -1262,7 +2311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
@@ -1312,7 +2361,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>5</v>
       </c>
@@ -1362,7 +2411,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
@@ -1415,7 +2464,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
@@ -1465,7 +2514,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>3</v>
       </c>
@@ -1515,81 +2564,319 @@
         <v>950</v>
       </c>
     </row>
-    <row r="19" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="23" t="s">
+    <row r="19" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-    </row>
-    <row r="20" spans="2:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-    </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B52" s="23" t="s">
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+    </row>
+    <row r="20" spans="2:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="2">
+        <f>C16/C15</f>
+        <v>16.956521739130434</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" ref="D22:Q22" si="0">D16/D15</f>
+        <v>33.75</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="0"/>
+        <v>35.294117647058826</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="0"/>
+        <v>37.714285714285715</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" si="0"/>
+        <v>20.37037037037037</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="0"/>
+        <v>34.285714285714285</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="0"/>
+        <v>34.482758620689658</v>
+      </c>
+      <c r="K22" s="2">
+        <f t="shared" si="0"/>
+        <v>35.932203389830505</v>
+      </c>
+      <c r="L22" s="2">
+        <f t="shared" si="0"/>
+        <v>36.241610738255034</v>
+      </c>
+      <c r="M22" s="2">
+        <f t="shared" si="0"/>
+        <v>17.741935483870968</v>
+      </c>
+      <c r="N22" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="O22" s="2">
+        <f t="shared" si="0"/>
+        <v>30.666666666666668</v>
+      </c>
+      <c r="P22" s="2">
+        <f t="shared" si="0"/>
+        <v>42.857142857142854</v>
+      </c>
+      <c r="Q22" s="2">
+        <f t="shared" si="0"/>
+        <v>31.666666666666668</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="2">
+        <f>C15/C12</f>
+        <v>0.23</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" ref="D23:Q23" si="1">D15/D12</f>
+        <v>0.05</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="1"/>
+        <v>5.3124999999999999E-2</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="1"/>
+        <v>5.46875E-2</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" si="1"/>
+        <v>0.27</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="1"/>
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" si="1"/>
+        <v>9.0624999999999997E-2</v>
+      </c>
+      <c r="K23" s="2">
+        <f t="shared" si="1"/>
+        <v>9.2187500000000006E-2</v>
+      </c>
+      <c r="L23" s="2">
+        <f t="shared" si="1"/>
+        <v>9.3124999999999999E-2</v>
+      </c>
+      <c r="M23" s="2">
+        <f t="shared" si="1"/>
+        <v>7.4399999999999994E-2</v>
+      </c>
+      <c r="N23" s="2">
+        <f t="shared" si="1"/>
+        <v>1.7142857142857144E-2</v>
+      </c>
+      <c r="O23" s="2">
+        <f t="shared" si="1"/>
+        <v>2.1428571428571429E-2</v>
+      </c>
+      <c r="P23" s="2">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="Q23" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="2">
+        <f>C14/C13</f>
+        <v>10</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25:P25" si="2">D14/D13</f>
+        <v>3</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="2"/>
+        <v>6.0869565217391308</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="2"/>
+        <v>8.5714285714285712</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="2"/>
+        <v>4.25</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" si="2"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="K25" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="M25" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="N25" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="O25" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="P25" s="2">
+        <f t="shared" si="2"/>
+        <v>9.1666666666666661</v>
+      </c>
+      <c r="Q25" s="2"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="2">
+        <f>C13/C12</f>
+        <v>0.315</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" ref="D26:P26" si="3">D13/D12</f>
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="3"/>
+        <v>7.1875000000000003E-3</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="3"/>
+        <v>8.7500000000000008E-3</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="3"/>
+        <v>0.35</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="3"/>
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" si="3"/>
+        <v>9.3749999999999997E-3</v>
+      </c>
+      <c r="K26" s="2">
+        <f t="shared" si="3"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="M26" s="2">
+        <f t="shared" si="3"/>
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="N26" s="2">
+        <f t="shared" si="3"/>
+        <v>2.8571428571428571E-3</v>
+      </c>
+      <c r="O26" s="2">
+        <f t="shared" si="3"/>
+        <v>2E-3</v>
+      </c>
+      <c r="P26" s="2">
+        <f t="shared" si="3"/>
+        <v>1.7142857142857142E-3</v>
+      </c>
+      <c r="Q26" s="2"/>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B52" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="23"/>
-      <c r="K52" s="23"/>
-      <c r="L52" s="23"/>
-      <c r="M52" s="23"/>
-      <c r="N52" s="23"/>
-      <c r="O52" s="23"/>
-      <c r="P52" s="23"/>
-      <c r="Q52" s="23"/>
-    </row>
-    <row r="53" spans="2:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="23"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="23"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="23"/>
-      <c r="K53" s="23"/>
-      <c r="L53" s="23"/>
-      <c r="M53" s="23"/>
-      <c r="N53" s="23"/>
-      <c r="O53" s="23"/>
-      <c r="P53" s="23"/>
-      <c r="Q53" s="23"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="27"/>
+      <c r="L52" s="27"/>
+      <c r="M52" s="27"/>
+      <c r="N52" s="27"/>
+      <c r="O52" s="27"/>
+      <c r="P52" s="27"/>
+      <c r="Q52" s="27"/>
+    </row>
+    <row r="53" spans="2:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="27"/>
+      <c r="L53" s="27"/>
+      <c r="M53" s="27"/>
+      <c r="N53" s="27"/>
+      <c r="O53" s="27"/>
+      <c r="P53" s="27"/>
+      <c r="Q53" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1605,20 +2892,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q22"/>
+  <dimension ref="B2:Q26"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="I77" sqref="I77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="2.5" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B3" s="9" t="s">
         <v>15</v>
       </c>
@@ -1638,199 +2925,753 @@
       <c r="P3" s="11"/>
       <c r="Q3" s="12"/>
     </row>
-    <row r="4" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+    <row r="4" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="19"/>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="19"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="19"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="19"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="19"/>
-    </row>
-    <row r="9" spans="2:17" ht="105.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="20"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="22"/>
-    </row>
-    <row r="11" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="24" t="s">
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="23"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="23"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B6" s="21"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="23"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="23"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="23"/>
+    </row>
+    <row r="9" spans="2:17" ht="105.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="26"/>
+    </row>
+    <row r="11" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-    </row>
-    <row r="21" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="24" t="s">
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B13" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B14" s="19">
+        <v>2.0804848920845798E+17</v>
+      </c>
+      <c r="C14" s="19">
+        <v>7.7983052188171098E+17</v>
+      </c>
+      <c r="D14" s="19">
+        <v>1.4634369180645399E+18</v>
+      </c>
+      <c r="E14" s="19">
+        <v>2.33297264010803E+18</v>
+      </c>
+      <c r="F14" s="19">
+        <v>2.9741521255203302E+18</v>
+      </c>
+      <c r="G14" s="19">
+        <v>3.88987255340883E+18</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B15" s="19">
+        <v>2.8573829949846202E+17</v>
+      </c>
+      <c r="C15" s="19">
+        <v>8.0863549613222106E+17</v>
+      </c>
+      <c r="D15" s="19">
+        <v>1.52275518729664E+18</v>
+      </c>
+      <c r="E15" s="19">
+        <v>2.5383063635885102E+18</v>
+      </c>
+      <c r="F15" s="19">
+        <v>3.0061013905655398E+18</v>
+      </c>
+      <c r="G15" s="19">
+        <v>4.0600501012741002E+18</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B16" s="19">
+        <v>4.1032401596793101E+17</v>
+      </c>
+      <c r="C16" s="19">
+        <v>8.6206858797245594E+17</v>
+      </c>
+      <c r="D16" s="19">
+        <v>1.60746167241603E+18</v>
+      </c>
+      <c r="E16" s="19">
+        <v>2.7904174726015601E+18</v>
+      </c>
+      <c r="F16" s="19">
+        <v>3.1353349836687698E+18</v>
+      </c>
+      <c r="G16" s="19">
+        <v>4.2587074691973002E+18</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B17" s="19">
+        <v>4.84156930539824E+17</v>
+      </c>
+      <c r="C17" s="19">
+        <v>8.7354940700129101E+17</v>
+      </c>
+      <c r="D17" s="19">
+        <v>1.70042680937506E+18</v>
+      </c>
+      <c r="E17" s="19">
+        <v>2.79686346456339E+18</v>
+      </c>
+      <c r="F17" s="19">
+        <v>3.2673104329849702E+18</v>
+      </c>
+      <c r="G17" s="19">
+        <v>4.3546098139788099E+18</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B18" s="19">
+        <v>5.7377435080386803E+17</v>
+      </c>
+      <c r="C18" s="19">
+        <v>1.04409882563959E+18</v>
+      </c>
+      <c r="D18" s="19">
+        <v>1.8649169118680801E+18</v>
+      </c>
+      <c r="E18" s="19">
+        <v>2.8224207565405998E+18</v>
+      </c>
+      <c r="F18" s="19">
+        <v>3.3937821230669998E+18</v>
+      </c>
+      <c r="G18" s="19">
+        <v>4.4302792100309601E+18</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B19" s="19">
+        <v>6.1972747474837402E+17</v>
+      </c>
+      <c r="C19" s="19">
+        <v>1.10825865438648E+18</v>
+      </c>
+      <c r="D19" s="19">
+        <v>1.9137958522495301E+18</v>
+      </c>
+      <c r="E19" s="19">
+        <v>2.8448402287496699E+18</v>
+      </c>
+      <c r="F19" s="19">
+        <v>3.4742174823012101E+18</v>
+      </c>
+      <c r="G19" s="19">
+        <v>4.4922385306159299E+18</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B20" s="19">
+        <v>6.2587916095901299E+17</v>
+      </c>
+      <c r="C20" s="19">
+        <v>1.14943101197984E+18</v>
+      </c>
+      <c r="D20" s="19">
+        <v>2.3121377836969001E+18</v>
+      </c>
+      <c r="E20" s="19">
+        <v>2.9345498420578202E+18</v>
+      </c>
+      <c r="F20" s="19">
+        <v>3.8226783620375598E+18</v>
+      </c>
+      <c r="G20" s="19"/>
+      <c r="J20" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="I21" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="I22" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="I23" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+    </row>
+    <row r="25" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B4:Q9"/>
     <mergeCell ref="B11:Q12"/>
-    <mergeCell ref="B21:Q22"/>
+    <mergeCell ref="B25:Q26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="17">
+        <v>0</v>
+      </c>
+      <c r="B2" s="18">
+        <v>2.0804848920845798E+17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="17">
+        <v>1</v>
+      </c>
+      <c r="B3" s="18">
+        <v>2.8573829949846202E+17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="17">
+        <v>2</v>
+      </c>
+      <c r="B4" s="18">
+        <v>4.1032401596793101E+17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="17">
+        <v>3</v>
+      </c>
+      <c r="B5" s="18">
+        <v>4.84156930539824E+17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="17">
+        <v>4</v>
+      </c>
+      <c r="B6" s="18">
+        <v>5.7377435080386803E+17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="17">
+        <v>5</v>
+      </c>
+      <c r="B7" s="18">
+        <v>6.1972747474837402E+17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="17">
+        <v>6</v>
+      </c>
+      <c r="B8" s="18">
+        <v>6.2587916095901299E+17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="17">
+        <v>7</v>
+      </c>
+      <c r="B9" s="18">
+        <v>7.7983052188171098E+17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="17">
+        <v>8</v>
+      </c>
+      <c r="B10" s="18">
+        <v>8.0863549613222106E+17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="17">
+        <v>9</v>
+      </c>
+      <c r="B11" s="18">
+        <v>8.6206858797245594E+17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="17">
+        <v>10</v>
+      </c>
+      <c r="B12" s="18">
+        <v>8.7354940700129101E+17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="17">
+        <v>11</v>
+      </c>
+      <c r="B13" s="18">
+        <v>1.04409882563959E+18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="17">
+        <v>12</v>
+      </c>
+      <c r="B14" s="18">
+        <v>1.10825865438648E+18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="17">
+        <v>13</v>
+      </c>
+      <c r="B15" s="18">
+        <v>1.14943101197984E+18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="17">
+        <v>14</v>
+      </c>
+      <c r="B16" s="18">
+        <v>1.4634369180645399E+18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="18">
+        <v>1.52275518729664E+18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="17">
+        <v>16</v>
+      </c>
+      <c r="B18" s="18">
+        <v>1.60746167241603E+18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="17">
+        <v>17</v>
+      </c>
+      <c r="B19" s="18">
+        <v>1.70042680937506E+18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="17">
+        <v>18</v>
+      </c>
+      <c r="B20" s="18">
+        <v>1.8649169118680801E+18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="17">
+        <v>19</v>
+      </c>
+      <c r="B21" s="18">
+        <v>1.9137958522495301E+18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="17">
+        <v>20</v>
+      </c>
+      <c r="B22" s="18">
+        <v>2.3121377836969001E+18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="17">
+        <v>21</v>
+      </c>
+      <c r="B23" s="18">
+        <v>2.33297264010803E+18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="17">
+        <v>22</v>
+      </c>
+      <c r="B24" s="18">
+        <v>2.5383063635885102E+18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="17">
+        <v>23</v>
+      </c>
+      <c r="B25" s="18">
+        <v>2.7904174726015601E+18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="17">
+        <v>24</v>
+      </c>
+      <c r="B26" s="18">
+        <v>2.79686346456339E+18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="17">
+        <v>25</v>
+      </c>
+      <c r="B27" s="18">
+        <v>2.8224207565405998E+18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="17">
+        <v>26</v>
+      </c>
+      <c r="B28" s="18">
+        <v>2.8448402287496699E+18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="17">
+        <v>27</v>
+      </c>
+      <c r="B29" s="18">
+        <v>2.9345498420578202E+18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="17">
+        <v>28</v>
+      </c>
+      <c r="B30" s="18">
+        <v>2.9741521255203302E+18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="17">
+        <v>29</v>
+      </c>
+      <c r="B31" s="18">
+        <v>3.0061013905655398E+18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="17">
+        <v>30</v>
+      </c>
+      <c r="B32" s="18">
+        <v>3.1353349836687698E+18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="17">
+        <v>31</v>
+      </c>
+      <c r="B33" s="18">
+        <v>3.2673104329849702E+18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="17">
+        <v>32</v>
+      </c>
+      <c r="B34" s="18">
+        <v>3.3937821230669998E+18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="17">
+        <v>33</v>
+      </c>
+      <c r="B35" s="18">
+        <v>3.4742174823012101E+18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="17">
+        <v>34</v>
+      </c>
+      <c r="B36" s="18">
+        <v>3.8226783620375598E+18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="17">
+        <v>35</v>
+      </c>
+      <c r="B37" s="18">
+        <v>3.88987255340883E+18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="17">
+        <v>36</v>
+      </c>
+      <c r="B38" s="18">
+        <v>4.0600501012741002E+18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="17">
+        <v>37</v>
+      </c>
+      <c r="B39" s="18">
+        <v>4.2587074691973002E+18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="17">
+        <v>38</v>
+      </c>
+      <c r="B40" s="18">
+        <v>4.3546098139788099E+18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="17">
+        <v>39</v>
+      </c>
+      <c r="B41" s="18">
+        <v>4.4302792100309601E+18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="17">
+        <v>40</v>
+      </c>
+      <c r="B42" s="18">
+        <v>4.4922385306159299E+18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DMA_ProblemSet.xlsx
+++ b/DMA_ProblemSet.xlsx
@@ -759,9 +759,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>528320</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>172720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -772,8 +772,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="142875" y="6960234"/>
-          <a:ext cx="10636885" cy="8503286"/>
+          <a:off x="142875" y="7153274"/>
+          <a:ext cx="10687685" cy="10067926"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -808,8 +808,12 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="sng"/>
+            <a:t>Softwares used: </a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Softwares used: Shell</a:t>
+            <a:t>Bash</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
@@ -821,14 +825,14 @@
         </a:p>
         <a:p>
           <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="sng" baseline="0"/>
+            <a:t>Breif overview: </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Breif overview: </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>1. I started by creating a localhost postgres database</a:t>
+            <a:t>1. I started by creating a localhost postgres database (Why Postgres? - I prefer the object oriented structure of Postgres, similar to that of Python)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -972,6 +976,161 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>                For this particular case one could have chosen a sequenced WHERE-AND statements as well. However, that does NOT transalate well to Big Data. Using WHERE-AND statements attemptst to join entire tables, which can significantly overload the memory when dealing with large data sets.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" i="1">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>How does this work?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>qr1 (TRANSACTION)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> = This is query 1 filtering out all accounts that fit the transaction criterions</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>qr2 (PRODUCT)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> = This is query 2 for filtering out ONLY 'Destiny' SKUs</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>q3 (JOIN: TRANSACTION + PRODUCT)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: Here, I am joining only the filtered transactions with filtered SKUs</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>q4 (ACCOUNT)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: This is query 4 for filtering out the baseline account specific criterions</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>q4 (JOIN: q4 + q3)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: Here, I am joining the already filtered q3 to filtered account id's</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1021,7 +1180,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+            <a:rPr lang="en-US" sz="1100" b="1" i="0" u="sng" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -1051,6 +1210,34 @@
             <a:tabLst/>
             <a:defRPr/>
           </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" i="0" u="sng" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="en-US"/>
             <a:t>SELECT DISTINCT(qr3.ACCT_ID)</a:t>
@@ -1534,150 +1721,12 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" i="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>How does this work?</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>qr1 (TRANSACTION)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> = This is query 1 filtering out all accounts that fit the transaction criterions</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>qr2 (PRODUCT)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> = This is query 2 for filtering out ONLY 'Destiny' SKUs</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>q3 (JOIN: TRANSACTION + PRODUCT)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>: Here, I am joining only the filtered transactions with filtered SKUs</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>q4 (ACCOUNT)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>: This is query 4 for filtering out the baseline account specific criterions</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>q4 (JOIN: q4 + q3)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>: Here, I am joining the already filtered q3 to filtered account id's</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" sz="1100" b="1" u="sng" baseline="0"/>
+            <a:t>Notes:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" u="sng" baseline="0"/>
         </a:p>
         <a:p>
           <a:r>
@@ -1688,7 +1737,11 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>*I urge to take a look at my notebook to see how I set up the database and explored tables before arriving to my final solution. The notebook is annotated for your reference</a:t>
+            <a:t>*</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>I urge to take a look at my notebook to see how I set up the database and explored tables before arriving to my final solution. The notebook is annotated for your reference</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2894,7 +2947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="I77" sqref="I77"/>
     </sheetView>
   </sheetViews>
